--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H2">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I2">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J2">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N2">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O2">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P2">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q2">
-        <v>37.00211200664668</v>
+        <v>32.97558147077956</v>
       </c>
       <c r="R2">
-        <v>333.0190080598201</v>
+        <v>296.780233237016</v>
       </c>
       <c r="S2">
-        <v>0.02001636027189846</v>
+        <v>0.02780356945877598</v>
       </c>
       <c r="T2">
-        <v>0.02001636027189847</v>
+        <v>0.02780356945877599</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H3">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I3">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J3">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>44.512854</v>
       </c>
       <c r="O3">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P3">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q3">
-        <v>21.24670731160934</v>
+        <v>24.12007138778133</v>
       </c>
       <c r="R3">
-        <v>191.220365804484</v>
+        <v>217.080642490032</v>
       </c>
       <c r="S3">
-        <v>0.01149344524075703</v>
+        <v>0.02033699029007478</v>
       </c>
       <c r="T3">
-        <v>0.01149344524075703</v>
+        <v>0.02033699029007478</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H4">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I4">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J4">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N4">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O4">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P4">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q4">
-        <v>13.88431651223423</v>
+        <v>23.54282096458311</v>
       </c>
       <c r="R4">
-        <v>124.958848610108</v>
+        <v>211.885388681248</v>
       </c>
       <c r="S4">
-        <v>0.007510746451122237</v>
+        <v>0.01985027795565479</v>
       </c>
       <c r="T4">
-        <v>0.007510746451122237</v>
+        <v>0.01985027795565479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H5">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I5">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J5">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N5">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O5">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P5">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q5">
-        <v>21.86925367686978</v>
+        <v>6.151777383215112</v>
       </c>
       <c r="R5">
-        <v>196.823283091828</v>
+        <v>55.36599644893601</v>
       </c>
       <c r="S5">
-        <v>0.01183021283744923</v>
+        <v>0.005186909893331595</v>
       </c>
       <c r="T5">
-        <v>0.01183021283744923</v>
+        <v>0.005186909893331597</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H6">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I6">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J6">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N6">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O6">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P6">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q6">
-        <v>7.639286713048446</v>
+        <v>6.584195820561779</v>
       </c>
       <c r="R6">
-        <v>68.75358041743601</v>
+        <v>59.25776238505601</v>
       </c>
       <c r="S6">
-        <v>0.004132486141365051</v>
+        <v>0.005551506225580568</v>
       </c>
       <c r="T6">
-        <v>0.004132486141365051</v>
+        <v>0.00555150622558057</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H7">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I7">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J7">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N7">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O7">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P7">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q7">
-        <v>41.79300891310557</v>
+        <v>10.93281571144622</v>
       </c>
       <c r="R7">
-        <v>376.1370802179501</v>
+        <v>98.395341403016</v>
       </c>
       <c r="S7">
-        <v>0.02260800472959805</v>
+        <v>0.009218072508669743</v>
       </c>
       <c r="T7">
-        <v>0.02260800472959805</v>
+        <v>0.009218072508669746</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>15.697404</v>
       </c>
       <c r="I8">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J8">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N8">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O8">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P8">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q8">
-        <v>135.20901378252</v>
+        <v>106.141358134612</v>
       </c>
       <c r="R8">
-        <v>1216.88112404268</v>
+        <v>955.2722232115079</v>
       </c>
       <c r="S8">
-        <v>0.07314156368676623</v>
+        <v>0.08949375543110737</v>
       </c>
       <c r="T8">
-        <v>0.07314156368676623</v>
+        <v>0.08949375543110738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>15.697404</v>
       </c>
       <c r="I9">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J9">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>44.512854</v>
       </c>
       <c r="O9">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P9">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q9">
         <v>77.637361381224</v>
@@ -1013,10 +1013,10 @@
         <v>698.7362524310159</v>
       </c>
       <c r="S9">
-        <v>0.04199807285830087</v>
+        <v>0.06546043082429755</v>
       </c>
       <c r="T9">
-        <v>0.04199807285830085</v>
+        <v>0.06546043082429756</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>15.697404</v>
       </c>
       <c r="I10">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J10">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N10">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O10">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P10">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q10">
-        <v>50.73452948648801</v>
+        <v>75.779315482736</v>
       </c>
       <c r="R10">
-        <v>456.610765378392</v>
+        <v>682.0138393446239</v>
       </c>
       <c r="S10">
-        <v>0.02744493666319323</v>
+        <v>0.06389380770828117</v>
       </c>
       <c r="T10">
-        <v>0.02744493666319323</v>
+        <v>0.06389380770828117</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>15.697404</v>
       </c>
       <c r="I11">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J11">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N11">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O11">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P11">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q11">
-        <v>79.91220126240799</v>
+        <v>19.801258303052</v>
       </c>
       <c r="R11">
-        <v>719.2098113616719</v>
+        <v>178.211324727468</v>
       </c>
       <c r="S11">
-        <v>0.04322865165916721</v>
+        <v>0.01669555580355489</v>
       </c>
       <c r="T11">
-        <v>0.04322865165916721</v>
+        <v>0.0166955558035549</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>15.697404</v>
       </c>
       <c r="I12">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J12">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N12">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O12">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P12">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q12">
-        <v>27.914634231896</v>
+        <v>21.193120953392</v>
       </c>
       <c r="R12">
-        <v>251.231708087064</v>
+        <v>190.738088580528</v>
       </c>
       <c r="S12">
-        <v>0.01510047252285308</v>
+        <v>0.01786911357417665</v>
       </c>
       <c r="T12">
-        <v>0.01510047252285308</v>
+        <v>0.01786911357417666</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>15.697404</v>
       </c>
       <c r="I13">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J13">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N13">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O13">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P13">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q13">
-        <v>152.7153778987</v>
+        <v>35.190400171612</v>
       </c>
       <c r="R13">
-        <v>1374.4384010883</v>
+        <v>316.713601544508</v>
       </c>
       <c r="S13">
-        <v>0.08261166342425014</v>
+        <v>0.02967100781287318</v>
       </c>
       <c r="T13">
-        <v>0.08261166342425012</v>
+        <v>0.02967100781287318</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H14">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I14">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J14">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N14">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O14">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P14">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q14">
-        <v>47.40609041693333</v>
+        <v>69.08341881610555</v>
       </c>
       <c r="R14">
-        <v>426.6548137524</v>
+        <v>621.75076934495</v>
       </c>
       <c r="S14">
-        <v>0.02564441145135394</v>
+        <v>0.05824812020996015</v>
       </c>
       <c r="T14">
-        <v>0.02564441145135394</v>
+        <v>0.05824812020996017</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H15">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I15">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J15">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>44.512854</v>
       </c>
       <c r="O15">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P15">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q15">
-        <v>27.22069831298667</v>
+        <v>50.53123915443333</v>
       </c>
       <c r="R15">
-        <v>244.98628481688</v>
+        <v>454.7811523898999</v>
       </c>
       <c r="S15">
-        <v>0.01472508661634036</v>
+        <v>0.04260573293948632</v>
       </c>
       <c r="T15">
-        <v>0.01472508661634036</v>
+        <v>0.04260573293948634</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H16">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I16">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J16">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N16">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O16">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P16">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q16">
-        <v>17.78820527428445</v>
+        <v>49.32190694651111</v>
       </c>
       <c r="R16">
-        <v>160.09384746856</v>
+        <v>443.8971625185999</v>
       </c>
       <c r="S16">
-        <v>0.00962256222824805</v>
+        <v>0.0415860768624132</v>
       </c>
       <c r="T16">
-        <v>0.009622562228248048</v>
+        <v>0.04158607686241321</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H17">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I17">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J17">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N17">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O17">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P17">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q17">
-        <v>28.01828763099555</v>
+        <v>12.88789445016111</v>
       </c>
       <c r="R17">
-        <v>252.16458867896</v>
+        <v>115.99105005145</v>
       </c>
       <c r="S17">
-        <v>0.0151565440189723</v>
+        <v>0.01086650947580567</v>
       </c>
       <c r="T17">
-        <v>0.01515654401897229</v>
+        <v>0.01086650947580567</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H18">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I18">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J18">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N18">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O18">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P18">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q18">
-        <v>9.787244484168889</v>
+        <v>13.79380551157778</v>
       </c>
       <c r="R18">
-        <v>88.08520035752001</v>
+        <v>124.1442496042</v>
       </c>
       <c r="S18">
-        <v>0.005294427832364953</v>
+        <v>0.01163033409985032</v>
       </c>
       <c r="T18">
-        <v>0.005294427832364953</v>
+        <v>0.01163033409985032</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H19">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I19">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J19">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N19">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O19">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P19">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q19">
-        <v>53.54405605211111</v>
+        <v>22.90410822027222</v>
       </c>
       <c r="R19">
-        <v>481.896504469</v>
+        <v>206.13697398245</v>
       </c>
       <c r="S19">
-        <v>0.02896475520546671</v>
+        <v>0.0193117432776116</v>
       </c>
       <c r="T19">
-        <v>0.02896475520546671</v>
+        <v>0.0193117432776116</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H20">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I20">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J20">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N20">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O20">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P20">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q20">
-        <v>161.59603139258</v>
+        <v>102.4138279965798</v>
       </c>
       <c r="R20">
-        <v>1454.36428253322</v>
+        <v>921.724451969218</v>
       </c>
       <c r="S20">
-        <v>0.08741566919968978</v>
+        <v>0.08635086488968367</v>
       </c>
       <c r="T20">
-        <v>0.08741566919968979</v>
+        <v>0.08635086488968369</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H21">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I21">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J21">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>44.512854</v>
       </c>
       <c r="O21">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P21">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q21">
-        <v>92.788854352396</v>
+        <v>74.91085015627066</v>
       </c>
       <c r="R21">
-        <v>835.0996891715639</v>
+        <v>674.197651406436</v>
       </c>
       <c r="S21">
-        <v>0.05019430073614844</v>
+        <v>0.0631615556917909</v>
       </c>
       <c r="T21">
-        <v>0.05019430073614844</v>
+        <v>0.06316155569179091</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H22">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I22">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J22">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N22">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O22">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P22">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q22">
-        <v>60.63574010511867</v>
+        <v>73.11805612761155</v>
       </c>
       <c r="R22">
-        <v>545.721660946068</v>
+        <v>658.062505148504</v>
       </c>
       <c r="S22">
-        <v>0.03280101468476286</v>
+        <v>0.06164995010129442</v>
       </c>
       <c r="T22">
-        <v>0.03280101468476286</v>
+        <v>0.06164995010129443</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H23">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I23">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J23">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N23">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O23">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P23">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q23">
-        <v>95.50764570046532</v>
+        <v>19.10586690809756</v>
       </c>
       <c r="R23">
-        <v>859.5688113041879</v>
+        <v>171.952802172878</v>
       </c>
       <c r="S23">
-        <v>0.05166503589627391</v>
+        <v>0.01610923216381003</v>
       </c>
       <c r="T23">
-        <v>0.05166503589627391</v>
+        <v>0.01610923216381003</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H24">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I24">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J24">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N24">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O24">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P24">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q24">
-        <v>33.36237713341733</v>
+        <v>20.44884936632089</v>
       </c>
       <c r="R24">
-        <v>300.261394200756</v>
+        <v>184.039644296888</v>
       </c>
       <c r="S24">
-        <v>0.01804743902481764</v>
+        <v>0.01724157629221358</v>
       </c>
       <c r="T24">
-        <v>0.01804743902481764</v>
+        <v>0.01724157629221358</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H25">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I25">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J25">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N25">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O25">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P25">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q25">
-        <v>182.5188891677167</v>
+        <v>33.95456449441311</v>
       </c>
       <c r="R25">
-        <v>1642.67000250945</v>
+        <v>305.591080449718</v>
       </c>
       <c r="S25">
-        <v>0.0987339274404518</v>
+        <v>0.02862900516855043</v>
       </c>
       <c r="T25">
-        <v>0.0987339274404518</v>
+        <v>0.02862900516855043</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H26">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I26">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J26">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N26">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O26">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P26">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q26">
-        <v>34.27911200269001</v>
+        <v>54.548735678282</v>
       </c>
       <c r="R26">
-        <v>308.51200802421</v>
+        <v>490.938621104538</v>
       </c>
       <c r="S26">
-        <v>0.01854334843166115</v>
+        <v>0.04599311046761872</v>
       </c>
       <c r="T26">
-        <v>0.01854334843166116</v>
+        <v>0.04599311046761874</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H27">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I27">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J27">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>44.512854</v>
       </c>
       <c r="O27">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P27">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q27">
-        <v>19.683153747878</v>
+        <v>39.899808888564</v>
       </c>
       <c r="R27">
-        <v>177.148383730902</v>
+        <v>359.098279997076</v>
       </c>
       <c r="S27">
-        <v>0.01064763807627854</v>
+        <v>0.03364177546977008</v>
       </c>
       <c r="T27">
-        <v>0.01064763807627854</v>
+        <v>0.03364177546977009</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H28">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I28">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J28">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N28">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O28">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P28">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q28">
-        <v>12.86256418871934</v>
+        <v>38.944911981496</v>
       </c>
       <c r="R28">
-        <v>115.763077698474</v>
+        <v>350.504207833464</v>
       </c>
       <c r="S28">
-        <v>0.006958027660031348</v>
+        <v>0.03283664812106323</v>
       </c>
       <c r="T28">
-        <v>0.006958027660031348</v>
+        <v>0.03283664812106324</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H29">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I29">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J29">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N29">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O29">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P29">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q29">
-        <v>20.25988668079266</v>
+        <v>10.176368799622</v>
       </c>
       <c r="R29">
-        <v>182.338980127134</v>
+        <v>91.58731919659802</v>
       </c>
       <c r="S29">
-        <v>0.01095962281282047</v>
+        <v>0.008580269524864341</v>
       </c>
       <c r="T29">
-        <v>0.01095962281282047</v>
+        <v>0.008580269524864344</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H30">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I30">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J30">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N30">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O30">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P30">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q30">
-        <v>7.077108593428668</v>
+        <v>10.891682313112</v>
       </c>
       <c r="R30">
-        <v>63.69397734085801</v>
+        <v>98.02514081800801</v>
       </c>
       <c r="S30">
-        <v>0.003828374857737063</v>
+        <v>0.00918339062447994</v>
       </c>
       <c r="T30">
-        <v>0.003828374857737063</v>
+        <v>0.009183390624479943</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H31">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I31">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J31">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N31">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O31">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P31">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q31">
-        <v>38.71744491785834</v>
+        <v>18.085239072782</v>
       </c>
       <c r="R31">
-        <v>348.457004260725</v>
+        <v>162.767151655038</v>
       </c>
       <c r="S31">
-        <v>0.02094427275243172</v>
+        <v>0.01524868336845665</v>
       </c>
       <c r="T31">
-        <v>0.02094427275243172</v>
+        <v>0.01524868336845666</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H32">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I32">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J32">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N32">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O32">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P32">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q32">
-        <v>61.39271831223333</v>
+        <v>9.784024514210889</v>
       </c>
       <c r="R32">
-        <v>552.5344648101</v>
+        <v>88.056220627898</v>
       </c>
       <c r="S32">
-        <v>0.03321050343256356</v>
+        <v>0.008249461966524603</v>
       </c>
       <c r="T32">
-        <v>0.03321050343256356</v>
+        <v>0.008249461966524605</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H33">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I33">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J33">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>44.512854</v>
       </c>
       <c r="O33">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P33">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q33">
-        <v>35.25185580784667</v>
+        <v>7.156549155977333</v>
       </c>
       <c r="R33">
-        <v>317.26670227062</v>
+        <v>64.40894240379599</v>
       </c>
       <c r="S33">
-        <v>0.01906955597497046</v>
+        <v>0.006034089549555909</v>
       </c>
       <c r="T33">
-        <v>0.01906955597497045</v>
+        <v>0.006034089549555911</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H34">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I34">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J34">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N34">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O34">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P34">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q34">
-        <v>23.03641296043778</v>
+        <v>6.985275988393777</v>
       </c>
       <c r="R34">
-        <v>207.32771664394</v>
+        <v>62.867483895544</v>
       </c>
       <c r="S34">
-        <v>0.01246158978994295</v>
+        <v>0.005889679498271334</v>
       </c>
       <c r="T34">
-        <v>0.01246158978994295</v>
+        <v>0.005889679498271336</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H35">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I35">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J35">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N35">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O35">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P35">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q35">
-        <v>36.28476478428222</v>
+        <v>1.825263969239778</v>
       </c>
       <c r="R35">
-        <v>326.56288305854</v>
+        <v>16.427375723158</v>
       </c>
       <c r="S35">
-        <v>0.01962830997789597</v>
+        <v>0.001538982825650218</v>
       </c>
       <c r="T35">
-        <v>0.01962830997789597</v>
+        <v>0.001538982825650219</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H36">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I36">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J36">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N36">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O36">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P36">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q36">
-        <v>12.67485967277556</v>
+        <v>1.953564742196445</v>
       </c>
       <c r="R36">
-        <v>114.07373705498</v>
+        <v>17.582082679768</v>
       </c>
       <c r="S36">
-        <v>0.006856488558287154</v>
+        <v>0.001647160431424247</v>
       </c>
       <c r="T36">
-        <v>0.006856488558287153</v>
+        <v>0.001647160431424247</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H37">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I37">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J37">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N37">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O37">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P37">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q37">
-        <v>69.34162090969446</v>
+        <v>3.243822615377555</v>
       </c>
       <c r="R37">
-        <v>624.07458818725</v>
+        <v>29.194403538398</v>
       </c>
       <c r="S37">
-        <v>0.03751047685376802</v>
+        <v>0.002735049493471937</v>
       </c>
       <c r="T37">
-        <v>0.03751047685376802</v>
+        <v>0.002735049493471938</v>
       </c>
     </row>
   </sheetData>
